--- a/PhD/Exacto/2024/2024-204/Data Sheet_2024-204.xlsx
+++ b/PhD/Exacto/2024/2024-204/Data Sheet_2024-204.xlsx
@@ -5,31 +5,42 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/PhD - UW/RESEARCH PROJECTS/Exacto/2024/2024-204/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/GitHub/FFaleco/PhD/Exacto/2024/2024-204/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="189" documentId="11_F25DC773A252ABDACC1048B59958404C5ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{806CC338-B944-47F1-8D2B-CD57B9126539}"/>
+  <xr:revisionPtr revIDLastSave="221" documentId="11_F25DC773A252ABDACC1048B59958404C5ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FFE2B50-5E44-46E6-AC3F-5D24C146FF7F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1st run" sheetId="1" r:id="rId1"/>
     <sheet name="Schedule" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1st run'!$A$1:$J$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1st run'!$A$1:$K$103</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -128,6 +139,9 @@
   </si>
   <si>
     <t>Plant</t>
+  </si>
+  <si>
+    <t>dose</t>
   </si>
 </sst>
 </file>
@@ -490,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J103"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:G103"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,16 +516,16 @@
     <col min="2" max="2" width="8.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="6" width="9.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,25 +539,28 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -560,16 +577,19 @@
         <v>12</v>
       </c>
       <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
         <v>1</v>
       </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="4">
+        <v>0.01</v>
+      </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -586,16 +606,19 @@
         <v>12</v>
       </c>
       <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
         <v>2</v>
       </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="4">
+        <v>0.01</v>
+      </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -612,16 +635,19 @@
         <v>12</v>
       </c>
       <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
         <v>3</v>
       </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="4">
+        <v>0.01</v>
+      </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -638,16 +664,19 @@
         <v>12</v>
       </c>
       <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
         <v>4</v>
       </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="4">
+        <v>0.01</v>
+      </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -664,16 +693,19 @@
         <v>12</v>
       </c>
       <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
         <v>5</v>
       </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="4">
+        <v>0.01</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -690,16 +722,19 @@
         <v>12</v>
       </c>
       <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
         <v>6</v>
       </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="4">
+        <v>0.01</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -716,16 +751,19 @@
         <v>13</v>
       </c>
       <c r="F8" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G8" s="4">
         <v>1</v>
       </c>
-      <c r="G8" s="4">
-        <v>80</v>
-      </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="4">
+        <v>0.8</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -742,16 +780,19 @@
         <v>13</v>
       </c>
       <c r="F9" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G9" s="4">
         <v>2</v>
       </c>
-      <c r="G9" s="4">
-        <v>100</v>
-      </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -768,16 +809,19 @@
         <v>13</v>
       </c>
       <c r="F10" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G10" s="4">
         <v>3</v>
       </c>
-      <c r="G10" s="4">
-        <v>100</v>
-      </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -794,16 +838,19 @@
         <v>13</v>
       </c>
       <c r="F11" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G11" s="4">
         <v>4</v>
       </c>
-      <c r="G11" s="4">
-        <v>100</v>
-      </c>
-      <c r="H11" s="4"/>
+      <c r="H11" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -820,16 +867,19 @@
         <v>13</v>
       </c>
       <c r="F12" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G12" s="4">
         <v>5</v>
       </c>
-      <c r="G12" s="4">
-        <v>100</v>
-      </c>
-      <c r="H12" s="4"/>
+      <c r="H12" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -846,16 +896,19 @@
         <v>13</v>
       </c>
       <c r="F13" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G13" s="4">
         <v>6</v>
       </c>
-      <c r="G13" s="4">
-        <v>95</v>
-      </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="4">
+        <v>0.95</v>
+      </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -872,16 +925,19 @@
         <v>13</v>
       </c>
       <c r="F14" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G14" s="4">
         <v>1</v>
       </c>
-      <c r="G14" s="4">
-        <v>85</v>
-      </c>
-      <c r="H14" s="4"/>
+      <c r="H14" s="4">
+        <v>0.85</v>
+      </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -898,16 +954,19 @@
         <v>13</v>
       </c>
       <c r="F15" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G15" s="4">
         <v>2</v>
       </c>
-      <c r="G15" s="4">
-        <v>95</v>
-      </c>
-      <c r="H15" s="4"/>
+      <c r="H15" s="4">
+        <v>0.95</v>
+      </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -924,16 +983,19 @@
         <v>13</v>
       </c>
       <c r="F16" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G16" s="4">
         <v>3</v>
       </c>
-      <c r="G16" s="4">
-        <v>95</v>
-      </c>
-      <c r="H16" s="4"/>
+      <c r="H16" s="4">
+        <v>0.95</v>
+      </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -950,16 +1012,19 @@
         <v>13</v>
       </c>
       <c r="F17" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G17" s="4">
         <v>4</v>
       </c>
-      <c r="G17" s="4">
-        <v>92</v>
-      </c>
-      <c r="H17" s="4"/>
+      <c r="H17" s="4">
+        <v>0.92</v>
+      </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -976,16 +1041,19 @@
         <v>13</v>
       </c>
       <c r="F18" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G18" s="4">
         <v>5</v>
       </c>
-      <c r="G18" s="4">
-        <v>100</v>
-      </c>
-      <c r="H18" s="4"/>
+      <c r="H18" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1002,16 +1070,19 @@
         <v>13</v>
       </c>
       <c r="F19" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G19" s="4">
         <v>6</v>
       </c>
-      <c r="G19" s="4">
-        <v>90</v>
-      </c>
-      <c r="H19" s="4"/>
+      <c r="H19" s="4">
+        <v>0.9</v>
+      </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1028,16 +1099,19 @@
         <v>13</v>
       </c>
       <c r="F20" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G20" s="4">
         <v>1</v>
       </c>
-      <c r="G20" s="4">
-        <v>100</v>
-      </c>
-      <c r="H20" s="4"/>
+      <c r="H20" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1054,16 +1128,19 @@
         <v>13</v>
       </c>
       <c r="F21" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G21" s="4">
         <v>2</v>
       </c>
-      <c r="G21" s="4">
-        <v>100</v>
-      </c>
-      <c r="H21" s="4"/>
+      <c r="H21" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1080,16 +1157,19 @@
         <v>13</v>
       </c>
       <c r="F22" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G22" s="4">
         <v>3</v>
       </c>
-      <c r="G22" s="4">
-        <v>100</v>
-      </c>
-      <c r="H22" s="4"/>
+      <c r="H22" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1106,16 +1186,19 @@
         <v>13</v>
       </c>
       <c r="F23" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G23" s="4">
         <v>4</v>
       </c>
-      <c r="G23" s="4">
-        <v>90</v>
-      </c>
-      <c r="H23" s="4"/>
+      <c r="H23" s="4">
+        <v>0.9</v>
+      </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1132,16 +1215,19 @@
         <v>13</v>
       </c>
       <c r="F24" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G24" s="4">
         <v>5</v>
       </c>
-      <c r="G24" s="4">
-        <v>90</v>
-      </c>
-      <c r="H24" s="4"/>
+      <c r="H24" s="4">
+        <v>0.9</v>
+      </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1158,16 +1244,19 @@
         <v>13</v>
       </c>
       <c r="F25" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G25" s="4">
         <v>6</v>
       </c>
-      <c r="G25" s="4">
-        <v>100</v>
-      </c>
-      <c r="H25" s="4"/>
+      <c r="H25" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1184,16 +1273,19 @@
         <v>13</v>
       </c>
       <c r="F26" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G26" s="4">
         <v>1</v>
       </c>
-      <c r="G26" s="4">
-        <v>75</v>
-      </c>
-      <c r="H26" s="4"/>
+      <c r="H26" s="4">
+        <v>0.75</v>
+      </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1210,16 +1302,19 @@
         <v>13</v>
       </c>
       <c r="F27" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G27" s="4">
         <v>2</v>
       </c>
-      <c r="G27" s="4">
-        <v>90</v>
-      </c>
-      <c r="H27" s="4"/>
+      <c r="H27" s="4">
+        <v>0.9</v>
+      </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1236,16 +1331,19 @@
         <v>13</v>
       </c>
       <c r="F28" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G28" s="4">
         <v>3</v>
       </c>
-      <c r="G28" s="4">
-        <v>80</v>
-      </c>
-      <c r="H28" s="4"/>
+      <c r="H28" s="4">
+        <v>0.8</v>
+      </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -1262,16 +1360,19 @@
         <v>13</v>
       </c>
       <c r="F29" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G29" s="4">
         <v>4</v>
       </c>
-      <c r="G29" s="4">
-        <v>92</v>
-      </c>
-      <c r="H29" s="4"/>
+      <c r="H29" s="4">
+        <v>0.92</v>
+      </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1288,16 +1389,19 @@
         <v>13</v>
       </c>
       <c r="F30" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G30" s="4">
         <v>5</v>
       </c>
-      <c r="G30" s="4">
-        <v>100</v>
-      </c>
-      <c r="H30" s="4"/>
+      <c r="H30" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -1314,16 +1418,19 @@
         <v>13</v>
       </c>
       <c r="F31" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G31" s="4">
         <v>6</v>
       </c>
-      <c r="G31" s="4">
-        <v>100</v>
-      </c>
-      <c r="H31" s="4"/>
+      <c r="H31" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -1340,16 +1447,19 @@
         <v>13</v>
       </c>
       <c r="F32" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G32" s="4">
         <v>1</v>
       </c>
-      <c r="G32" s="4">
-        <v>90</v>
-      </c>
-      <c r="H32" s="4"/>
+      <c r="H32" s="4">
+        <v>0.9</v>
+      </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -1366,16 +1476,19 @@
         <v>13</v>
       </c>
       <c r="F33" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G33" s="4">
         <v>2</v>
       </c>
-      <c r="G33" s="4">
-        <v>92</v>
-      </c>
-      <c r="H33" s="4"/>
+      <c r="H33" s="4">
+        <v>0.92</v>
+      </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -1392,16 +1505,19 @@
         <v>13</v>
       </c>
       <c r="F34" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G34" s="4">
         <v>3</v>
       </c>
-      <c r="G34" s="4">
-        <v>90</v>
-      </c>
-      <c r="H34" s="4"/>
+      <c r="H34" s="4">
+        <v>0.9</v>
+      </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -1418,16 +1534,19 @@
         <v>13</v>
       </c>
       <c r="F35" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G35" s="4">
         <v>4</v>
       </c>
-      <c r="G35" s="4">
-        <v>100</v>
-      </c>
-      <c r="H35" s="4"/>
+      <c r="H35" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -1444,16 +1563,19 @@
         <v>13</v>
       </c>
       <c r="F36" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G36" s="4">
         <v>5</v>
       </c>
-      <c r="G36" s="4">
-        <v>90</v>
-      </c>
-      <c r="H36" s="4"/>
+      <c r="H36" s="4">
+        <v>0.9</v>
+      </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -1470,16 +1592,19 @@
         <v>13</v>
       </c>
       <c r="F37" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G37" s="4">
         <v>6</v>
       </c>
-      <c r="G37" s="4">
-        <v>85</v>
-      </c>
-      <c r="H37" s="4"/>
+      <c r="H37" s="4">
+        <v>0.85</v>
+      </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -1496,16 +1621,19 @@
         <v>13</v>
       </c>
       <c r="F38" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G38" s="4">
         <v>1</v>
       </c>
-      <c r="G38" s="4">
-        <v>100</v>
-      </c>
-      <c r="H38" s="4"/>
+      <c r="H38" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38" s="4"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -1522,16 +1650,19 @@
         <v>13</v>
       </c>
       <c r="F39" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G39" s="4">
         <v>2</v>
       </c>
-      <c r="G39" s="4">
-        <v>80</v>
-      </c>
-      <c r="H39" s="4"/>
+      <c r="H39" s="4">
+        <v>0.8</v>
+      </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39" s="4"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -1548,16 +1679,19 @@
         <v>13</v>
       </c>
       <c r="F40" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G40" s="4">
         <v>3</v>
       </c>
-      <c r="G40" s="4">
-        <v>100</v>
-      </c>
-      <c r="H40" s="4"/>
+      <c r="H40" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40" s="4"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -1574,16 +1708,19 @@
         <v>13</v>
       </c>
       <c r="F41" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G41" s="4">
         <v>4</v>
       </c>
-      <c r="G41" s="4">
-        <v>95</v>
-      </c>
-      <c r="H41" s="4"/>
+      <c r="H41" s="4">
+        <v>0.95</v>
+      </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41" s="4"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -1600,16 +1737,19 @@
         <v>13</v>
       </c>
       <c r="F42" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G42" s="4">
         <v>5</v>
       </c>
-      <c r="G42" s="4">
-        <v>85</v>
-      </c>
-      <c r="H42" s="4"/>
+      <c r="H42" s="4">
+        <v>0.85</v>
+      </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -1626,16 +1766,19 @@
         <v>13</v>
       </c>
       <c r="F43" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G43" s="4">
         <v>6</v>
       </c>
-      <c r="G43" s="4">
-        <v>90</v>
-      </c>
-      <c r="H43" s="4"/>
+      <c r="H43" s="4">
+        <v>0.9</v>
+      </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43" s="4"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -1652,16 +1795,19 @@
         <v>13</v>
       </c>
       <c r="F44" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G44" s="4">
         <v>1</v>
       </c>
-      <c r="G44" s="4">
-        <v>100</v>
-      </c>
-      <c r="H44" s="4"/>
+      <c r="H44" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -1678,16 +1824,19 @@
         <v>13</v>
       </c>
       <c r="F45" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G45" s="4">
         <v>2</v>
       </c>
-      <c r="G45" s="4">
-        <v>100</v>
-      </c>
-      <c r="H45" s="4"/>
+      <c r="H45" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45" s="4"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -1704,16 +1853,19 @@
         <v>13</v>
       </c>
       <c r="F46" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G46" s="4">
         <v>3</v>
       </c>
-      <c r="G46" s="4">
-        <v>100</v>
-      </c>
-      <c r="H46" s="4"/>
+      <c r="H46" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46" s="4"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -1730,16 +1882,19 @@
         <v>13</v>
       </c>
       <c r="F47" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G47" s="4">
         <v>4</v>
       </c>
-      <c r="G47" s="4">
-        <v>80</v>
-      </c>
-      <c r="H47" s="4"/>
+      <c r="H47" s="4">
+        <v>0.8</v>
+      </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47" s="4"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -1756,16 +1911,19 @@
         <v>13</v>
       </c>
       <c r="F48" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G48" s="4">
         <v>5</v>
       </c>
-      <c r="G48" s="4">
-        <v>80</v>
-      </c>
-      <c r="H48" s="4"/>
+      <c r="H48" s="4">
+        <v>0.8</v>
+      </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48" s="4"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -1782,16 +1940,19 @@
         <v>13</v>
       </c>
       <c r="F49" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G49" s="4">
         <v>6</v>
       </c>
-      <c r="G49" s="4">
-        <v>100</v>
-      </c>
-      <c r="H49" s="4"/>
+      <c r="H49" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49" s="4"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -1808,16 +1969,19 @@
         <v>13</v>
       </c>
       <c r="F50" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G50" s="4">
         <v>1</v>
       </c>
-      <c r="G50" s="4">
-        <v>60</v>
-      </c>
-      <c r="H50" s="4"/>
+      <c r="H50" s="4">
+        <v>0.6</v>
+      </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50" s="4"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -1834,16 +1998,19 @@
         <v>13</v>
       </c>
       <c r="F51" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G51" s="4">
         <v>2</v>
       </c>
-      <c r="G51" s="4">
-        <v>85</v>
-      </c>
-      <c r="H51" s="4"/>
+      <c r="H51" s="4">
+        <v>0.85</v>
+      </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K51" s="4"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -1860,16 +2027,19 @@
         <v>13</v>
       </c>
       <c r="F52" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G52" s="4">
         <v>3</v>
       </c>
-      <c r="G52" s="4">
-        <v>75</v>
-      </c>
-      <c r="H52" s="4"/>
+      <c r="H52" s="4">
+        <v>0.75</v>
+      </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52" s="4"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -1886,16 +2056,19 @@
         <v>13</v>
       </c>
       <c r="F53" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G53" s="4">
         <v>4</v>
       </c>
-      <c r="G53" s="4">
-        <v>75</v>
-      </c>
-      <c r="H53" s="4"/>
+      <c r="H53" s="4">
+        <v>0.75</v>
+      </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53" s="4"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -1912,16 +2085,19 @@
         <v>13</v>
       </c>
       <c r="F54" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G54" s="4">
         <v>5</v>
       </c>
-      <c r="G54" s="4">
-        <v>95</v>
-      </c>
-      <c r="H54" s="4"/>
+      <c r="H54" s="4">
+        <v>0.95</v>
+      </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K54" s="4"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -1938,16 +2114,19 @@
         <v>13</v>
       </c>
       <c r="F55" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="G55" s="4">
         <v>6</v>
       </c>
-      <c r="G55" s="4">
-        <v>70</v>
-      </c>
-      <c r="H55" s="4"/>
+      <c r="H55" s="4">
+        <v>0.7</v>
+      </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55" s="4"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -1964,16 +2143,19 @@
         <v>14</v>
       </c>
       <c r="F56" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G56" s="4">
         <v>1</v>
       </c>
-      <c r="G56" s="4">
-        <v>90</v>
-      </c>
-      <c r="H56" s="4"/>
+      <c r="H56" s="4">
+        <v>0.9</v>
+      </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56" s="4"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -1990,16 +2172,19 @@
         <v>14</v>
       </c>
       <c r="F57" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G57" s="4">
         <v>2</v>
       </c>
-      <c r="G57" s="4">
-        <v>95</v>
-      </c>
-      <c r="H57" s="4"/>
+      <c r="H57" s="4">
+        <v>0.95</v>
+      </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K57" s="4"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -2016,16 +2201,19 @@
         <v>14</v>
       </c>
       <c r="F58" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G58" s="4">
         <v>3</v>
       </c>
-      <c r="G58" s="4">
-        <v>100</v>
-      </c>
-      <c r="H58" s="4"/>
+      <c r="H58" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K58" s="4"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -2042,16 +2230,19 @@
         <v>14</v>
       </c>
       <c r="F59" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G59" s="4">
         <v>4</v>
       </c>
-      <c r="G59" s="4">
-        <v>100</v>
-      </c>
-      <c r="H59" s="4"/>
+      <c r="H59" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K59" s="4"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -2068,16 +2259,19 @@
         <v>14</v>
       </c>
       <c r="F60" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G60" s="4">
         <v>5</v>
       </c>
-      <c r="G60" s="4">
-        <v>100</v>
-      </c>
-      <c r="H60" s="4"/>
+      <c r="H60" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K60" s="4"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -2094,16 +2288,19 @@
         <v>14</v>
       </c>
       <c r="F61" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G61" s="4">
         <v>6</v>
       </c>
-      <c r="G61" s="4">
-        <v>95</v>
-      </c>
-      <c r="H61" s="4"/>
+      <c r="H61" s="4">
+        <v>0.95</v>
+      </c>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K61" s="4"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -2120,16 +2317,19 @@
         <v>14</v>
       </c>
       <c r="F62" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G62" s="4">
         <v>1</v>
       </c>
-      <c r="G62" s="4">
-        <v>100</v>
-      </c>
-      <c r="H62" s="4"/>
+      <c r="H62" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K62" s="4"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -2146,16 +2346,19 @@
         <v>14</v>
       </c>
       <c r="F63" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G63" s="4">
         <v>2</v>
       </c>
-      <c r="G63" s="4">
-        <v>100</v>
-      </c>
-      <c r="H63" s="4"/>
+      <c r="H63" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K63" s="4"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -2172,16 +2375,19 @@
         <v>14</v>
       </c>
       <c r="F64" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G64" s="4">
         <v>3</v>
       </c>
-      <c r="G64" s="4">
-        <v>100</v>
-      </c>
-      <c r="H64" s="4"/>
+      <c r="H64" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K64" s="4"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -2198,16 +2404,19 @@
         <v>14</v>
       </c>
       <c r="F65" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G65" s="4">
         <v>4</v>
       </c>
-      <c r="G65" s="4">
-        <v>100</v>
-      </c>
-      <c r="H65" s="4"/>
+      <c r="H65" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K65" s="4"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -2224,16 +2433,19 @@
         <v>14</v>
       </c>
       <c r="F66" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G66" s="4">
         <v>5</v>
       </c>
-      <c r="G66" s="4">
-        <v>100</v>
-      </c>
-      <c r="H66" s="4"/>
+      <c r="H66" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K66" s="4"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -2250,16 +2462,19 @@
         <v>14</v>
       </c>
       <c r="F67" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G67" s="4">
         <v>6</v>
       </c>
-      <c r="G67" s="4">
-        <v>100</v>
-      </c>
-      <c r="H67" s="4"/>
+      <c r="H67" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K67" s="4"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -2276,16 +2491,19 @@
         <v>14</v>
       </c>
       <c r="F68" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G68" s="4">
         <v>1</v>
       </c>
-      <c r="G68" s="4">
-        <v>100</v>
-      </c>
-      <c r="H68" s="4"/>
+      <c r="H68" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K68" s="4"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -2302,16 +2520,19 @@
         <v>14</v>
       </c>
       <c r="F69" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G69" s="4">
         <v>2</v>
       </c>
-      <c r="G69" s="4">
-        <v>100</v>
-      </c>
-      <c r="H69" s="4"/>
+      <c r="H69" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K69" s="4"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -2328,16 +2549,19 @@
         <v>14</v>
       </c>
       <c r="F70" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G70" s="4">
         <v>3</v>
       </c>
-      <c r="G70" s="4">
-        <v>100</v>
-      </c>
-      <c r="H70" s="4"/>
+      <c r="H70" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K70" s="4"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -2354,16 +2578,19 @@
         <v>14</v>
       </c>
       <c r="F71" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G71" s="4">
         <v>4</v>
       </c>
-      <c r="G71" s="4">
-        <v>100</v>
-      </c>
-      <c r="H71" s="4"/>
+      <c r="H71" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K71" s="4"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -2380,16 +2607,19 @@
         <v>14</v>
       </c>
       <c r="F72" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G72" s="4">
         <v>5</v>
       </c>
-      <c r="G72" s="4">
-        <v>95</v>
-      </c>
-      <c r="H72" s="4"/>
+      <c r="H72" s="4">
+        <v>0.95</v>
+      </c>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K72" s="4"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -2406,16 +2636,19 @@
         <v>14</v>
       </c>
       <c r="F73" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G73" s="4">
         <v>6</v>
       </c>
-      <c r="G73" s="4">
-        <v>100</v>
-      </c>
-      <c r="H73" s="4"/>
+      <c r="H73" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K73" s="4"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -2432,16 +2665,19 @@
         <v>14</v>
       </c>
       <c r="F74" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G74" s="4">
         <v>1</v>
       </c>
-      <c r="G74" s="4">
-        <v>100</v>
-      </c>
-      <c r="H74" s="4"/>
+      <c r="H74" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K74" s="4"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -2458,16 +2694,19 @@
         <v>14</v>
       </c>
       <c r="F75" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G75" s="4">
         <v>2</v>
       </c>
-      <c r="G75" s="4">
-        <v>100</v>
-      </c>
-      <c r="H75" s="4"/>
+      <c r="H75" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K75" s="4"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -2484,16 +2723,19 @@
         <v>14</v>
       </c>
       <c r="F76" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G76" s="4">
         <v>3</v>
       </c>
-      <c r="G76" s="4">
-        <v>100</v>
-      </c>
-      <c r="H76" s="4"/>
+      <c r="H76" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K76" s="4"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -2510,16 +2752,19 @@
         <v>14</v>
       </c>
       <c r="F77" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G77" s="4">
         <v>4</v>
       </c>
-      <c r="G77" s="4">
-        <v>100</v>
-      </c>
-      <c r="H77" s="4"/>
+      <c r="H77" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K77" s="4"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -2536,16 +2781,19 @@
         <v>14</v>
       </c>
       <c r="F78" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G78" s="4">
         <v>5</v>
       </c>
-      <c r="G78" s="4">
-        <v>100</v>
-      </c>
-      <c r="H78" s="4"/>
+      <c r="H78" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K78" s="4"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -2562,16 +2810,19 @@
         <v>14</v>
       </c>
       <c r="F79" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G79" s="4">
         <v>6</v>
       </c>
-      <c r="G79" s="4">
-        <v>100</v>
-      </c>
-      <c r="H79" s="4"/>
+      <c r="H79" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K79" s="4"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -2588,16 +2839,19 @@
         <v>14</v>
       </c>
       <c r="F80" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G80" s="4">
         <v>1</v>
       </c>
-      <c r="G80" s="4">
-        <v>100</v>
-      </c>
-      <c r="H80" s="4"/>
+      <c r="H80" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K80" s="4"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -2614,16 +2868,19 @@
         <v>14</v>
       </c>
       <c r="F81" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G81" s="4">
         <v>2</v>
       </c>
-      <c r="G81" s="4">
-        <v>100</v>
-      </c>
-      <c r="H81" s="4"/>
+      <c r="H81" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K81" s="4"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -2640,16 +2897,19 @@
         <v>14</v>
       </c>
       <c r="F82" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G82" s="4">
         <v>3</v>
       </c>
-      <c r="G82" s="4">
-        <v>90</v>
-      </c>
-      <c r="H82" s="4"/>
+      <c r="H82" s="4">
+        <v>0.9</v>
+      </c>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K82" s="4"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -2666,16 +2926,19 @@
         <v>14</v>
       </c>
       <c r="F83" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G83" s="4">
         <v>4</v>
       </c>
-      <c r="G83" s="4">
-        <v>100</v>
-      </c>
-      <c r="H83" s="4"/>
+      <c r="H83" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K83" s="4"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -2692,16 +2955,19 @@
         <v>14</v>
       </c>
       <c r="F84" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G84" s="4">
         <v>5</v>
       </c>
-      <c r="G84" s="4">
-        <v>100</v>
-      </c>
-      <c r="H84" s="4"/>
+      <c r="H84" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K84" s="4"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -2718,16 +2984,19 @@
         <v>14</v>
       </c>
       <c r="F85" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G85" s="4">
         <v>6</v>
       </c>
-      <c r="G85" s="4">
-        <v>100</v>
-      </c>
-      <c r="H85" s="4"/>
+      <c r="H85" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K85" s="4"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -2744,16 +3013,19 @@
         <v>14</v>
       </c>
       <c r="F86" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G86" s="4">
         <v>1</v>
       </c>
-      <c r="G86" s="4">
-        <v>100</v>
-      </c>
-      <c r="H86" s="4"/>
+      <c r="H86" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K86" s="4"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -2770,16 +3042,19 @@
         <v>14</v>
       </c>
       <c r="F87" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G87" s="4">
         <v>2</v>
       </c>
-      <c r="G87" s="4">
-        <v>95</v>
-      </c>
-      <c r="H87" s="4"/>
+      <c r="H87" s="4">
+        <v>0.95</v>
+      </c>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K87" s="4"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -2796,16 +3071,19 @@
         <v>14</v>
       </c>
       <c r="F88" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G88" s="4">
         <v>3</v>
       </c>
-      <c r="G88" s="4">
-        <v>100</v>
-      </c>
-      <c r="H88" s="4"/>
+      <c r="H88" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K88" s="4"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -2822,16 +3100,19 @@
         <v>14</v>
       </c>
       <c r="F89" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G89" s="4">
         <v>4</v>
       </c>
-      <c r="G89" s="4">
-        <v>100</v>
-      </c>
-      <c r="H89" s="4"/>
+      <c r="H89" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K89" s="4"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -2848,16 +3129,19 @@
         <v>14</v>
       </c>
       <c r="F90" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G90" s="4">
         <v>5</v>
       </c>
-      <c r="G90" s="4">
-        <v>100</v>
-      </c>
-      <c r="H90" s="4"/>
+      <c r="H90" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K90" s="4"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -2874,16 +3158,19 @@
         <v>14</v>
       </c>
       <c r="F91" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G91" s="4">
         <v>6</v>
       </c>
-      <c r="G91" s="4">
-        <v>100</v>
-      </c>
-      <c r="H91" s="4"/>
+      <c r="H91" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K91" s="4"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -2900,16 +3187,19 @@
         <v>14</v>
       </c>
       <c r="F92" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G92" s="4">
         <v>1</v>
       </c>
-      <c r="G92" s="4">
-        <v>100</v>
-      </c>
-      <c r="H92" s="4"/>
+      <c r="H92" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K92" s="4"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -2926,16 +3216,19 @@
         <v>14</v>
       </c>
       <c r="F93" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G93" s="4">
         <v>2</v>
       </c>
-      <c r="G93" s="4">
-        <v>100</v>
-      </c>
-      <c r="H93" s="4"/>
+      <c r="H93" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K93" s="4"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -2952,16 +3245,19 @@
         <v>14</v>
       </c>
       <c r="F94" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G94" s="4">
         <v>3</v>
       </c>
-      <c r="G94" s="4">
-        <v>100</v>
-      </c>
-      <c r="H94" s="4"/>
+      <c r="H94" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K94" s="4"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -2978,16 +3274,19 @@
         <v>14</v>
       </c>
       <c r="F95" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G95" s="4">
         <v>4</v>
       </c>
-      <c r="G95" s="4">
-        <v>90</v>
-      </c>
-      <c r="H95" s="4"/>
+      <c r="H95" s="4">
+        <v>0.9</v>
+      </c>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K95" s="4"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -3004,16 +3303,19 @@
         <v>14</v>
       </c>
       <c r="F96" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G96" s="4">
         <v>5</v>
       </c>
-      <c r="G96" s="4">
-        <v>100</v>
-      </c>
-      <c r="H96" s="4"/>
+      <c r="H96" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K96" s="4"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -3030,16 +3332,19 @@
         <v>14</v>
       </c>
       <c r="F97" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G97" s="4">
         <v>6</v>
       </c>
-      <c r="G97" s="4">
-        <v>100</v>
-      </c>
-      <c r="H97" s="4"/>
+      <c r="H97" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K97" s="4"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -3056,16 +3361,19 @@
         <v>14</v>
       </c>
       <c r="F98" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G98" s="4">
         <v>1</v>
       </c>
-      <c r="G98" s="4">
-        <v>100</v>
-      </c>
-      <c r="H98" s="4"/>
+      <c r="H98" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K98" s="4"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -3082,16 +3390,19 @@
         <v>14</v>
       </c>
       <c r="F99" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G99" s="4">
         <v>2</v>
       </c>
-      <c r="G99" s="4">
-        <v>100</v>
-      </c>
-      <c r="H99" s="4"/>
+      <c r="H99" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K99" s="4"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -3108,16 +3419,19 @@
         <v>14</v>
       </c>
       <c r="F100" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G100" s="4">
         <v>3</v>
       </c>
-      <c r="G100" s="4">
-        <v>100</v>
-      </c>
-      <c r="H100" s="4"/>
+      <c r="H100" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K100" s="4"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -3134,16 +3448,19 @@
         <v>14</v>
       </c>
       <c r="F101" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G101" s="4">
         <v>4</v>
       </c>
-      <c r="G101" s="4">
-        <v>100</v>
-      </c>
-      <c r="H101" s="4"/>
+      <c r="H101" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K101" s="4"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -3160,16 +3477,19 @@
         <v>14</v>
       </c>
       <c r="F102" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G102" s="4">
         <v>5</v>
       </c>
-      <c r="G102" s="4">
-        <v>100</v>
-      </c>
-      <c r="H102" s="4"/>
+      <c r="H102" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K102" s="4"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -3186,17 +3506,20 @@
         <v>14</v>
       </c>
       <c r="F103" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="G103" s="4">
         <v>6</v>
       </c>
-      <c r="G103" s="4">
-        <v>100</v>
-      </c>
-      <c r="H103" s="4"/>
+      <c r="H103" s="4">
+        <v>0.99</v>
+      </c>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J103" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K103" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
